--- a/AnilistShows.xlsx
+++ b/AnilistShows.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,22 +442,22 @@
       <c r="A2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shingeki no Kyojin
-</t>
+			Shingeki no Kyojin
+		</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-10
-</t>
+			10
+			</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-25
-</t>
+		25
+		</t>
         </is>
       </c>
     </row>
@@ -465,22 +465,22 @@
       <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shingeki no Kyojin 2
-</t>
+			Shingeki no Kyojin 2
+		</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-10
-</t>
+			10
+			</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-12
-</t>
+		12
+		</t>
         </is>
       </c>
     </row>
@@ -488,22 +488,22 @@
       <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shingeki no Kyojin 3
-</t>
+			Shingeki no Kyojin 3
+		</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-10
-</t>
+			10
+			</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-12
-</t>
+		12
+		</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       <c r="A5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shingeki no Kyojin 3 Part 2
-</t>
+			Shingeki no Kyojin 3 Part 2
+		</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-10
-</t>
+			10
+			</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-10
-</t>
+		10
+		</t>
         </is>
       </c>
     </row>
@@ -534,22 +534,22 @@
       <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shingeki no Kyojin: The Final Season
-</t>
+			Shingeki no Kyojin: The Final Season
+		</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-10
-</t>
+			10
+			</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-16
-</t>
+		16
+		</t>
         </is>
       </c>
     </row>
@@ -557,22 +557,22 @@
       <c r="A7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shingeki no Kyojin: The Final Season Part 2
-</t>
+			Shingeki no Kyojin: The Final Season Part 2
+		</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-10
-</t>
+			10
+			</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-12
-</t>
+		12
+		</t>
         </is>
       </c>
     </row>
@@ -580,22 +580,22 @@
       <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-NARUTO: Shippuuden
-</t>
+			NARUTO: Shippuuden
+		</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.9
-</t>
+			9.9
+			</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-500
-</t>
+		500
+		</t>
         </is>
       </c>
     </row>
@@ -603,22 +603,22 @@
       <c r="A9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-86: Eighty Six
-</t>
+			86: Eighty Six
+		</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.8
-</t>
+			9.8
+			</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-11
-</t>
+		11
+		</t>
         </is>
       </c>
     </row>
@@ -626,22 +626,22 @@
       <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-86: Eighty Six Part 2
-</t>
+			86: Eighty Six Part 2
+		</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.8
-</t>
+			9.8
+			</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-12
-</t>
+		12
+		</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       <c r="A11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Black Clover
-</t>
+			Black Clover
+		</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.7
-</t>
+			9.7
+			</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-170
-</t>
+		170
+		</t>
         </is>
       </c>
     </row>
@@ -672,22 +672,22 @@
       <c r="A12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Code Geass: Fukkatsu no Lelouch
-</t>
+			Code Geass: Fukkatsu no Lelouch
+		</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.7
-</t>
+			9.7
+			</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-1
-</t>
+		1
+		</t>
         </is>
       </c>
     </row>
@@ -695,22 +695,22 @@
       <c r="A13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Code Geass: Hangyaku no Lelouch
-</t>
+			Code Geass: Hangyaku no Lelouch
+		</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.7
-</t>
+			9.7
+			</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-25
-</t>
+		25
+		</t>
         </is>
       </c>
     </row>
@@ -718,22 +718,22 @@
       <c r="A14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Code Geass: Hangyaku no Lelouch R2
-</t>
+			Code Geass: Hangyaku no Lelouch R2
+		</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.7
-</t>
+			9.7
+			</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-25
-</t>
+		25
+		</t>
         </is>
       </c>
     </row>
@@ -741,22 +741,22 @@
       <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Kimetsu no Yaiba
-</t>
+			Kimetsu no Yaiba
+		</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.7
-</t>
+			9.7
+			</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-26
-</t>
+		26
+		</t>
         </is>
       </c>
     </row>
@@ -764,22 +764,22 @@
       <c r="A16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Kimetsu no Yaiba: Katanakaji no Sato-hen
-</t>
+			Kimetsu no Yaiba: Katanakaji no Sato-hen
+		</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.7
-</t>
+			9.7
+			</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-11
-</t>
+		11
+		</t>
         </is>
       </c>
     </row>
@@ -787,22 +787,22 @@
       <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Kimetsu no Yaiba: Mugen Ressha-hen
-</t>
+			Kimetsu no Yaiba: Mugen Ressha-hen
+		</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.7
-</t>
+			9.7
+			</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-1
-</t>
+		1
+		</t>
         </is>
       </c>
     </row>
@@ -810,22 +810,22 @@
       <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Kimetsu no Yaiba: Mugen Ressha-hen (TV)
-</t>
+			Kimetsu no Yaiba: Mugen Ressha-hen (TV)
+		</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.7
-</t>
+			9.7
+			</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-7
-</t>
+		7
+		</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Kimetsu no Yaiba: Yuukaku-hen
-</t>
+			Kimetsu no Yaiba: Yuukaku-hen
+		</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.7
-</t>
+			9.7
+			</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-11
-</t>
+		11
+		</t>
         </is>
       </c>
     </row>
@@ -856,22 +856,22 @@
       <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Vanitas no Carte
-</t>
+			Vanitas no Carte
+		</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.7
-</t>
+			9.7
+			</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-12
-</t>
+		12
+		</t>
         </is>
       </c>
     </row>
@@ -879,22 +879,22 @@
       <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Vanitas no Carte Part 2
-</t>
+			Vanitas no Carte Part 2
+		</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.7
-</t>
+			9.7
+			</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-12
-</t>
+		12
+		</t>
         </is>
       </c>
     </row>
@@ -902,22 +902,22 @@
       <c r="A22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bocchi the Rock!
-</t>
+			Bocchi the Rock!
+		</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.5
-</t>
+			9.5
+			</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-12
-</t>
+		12
+		</t>
         </is>
       </c>
     </row>
@@ -925,22 +925,22 @@
       <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jujutsu Kaisen
-</t>
+			Jujutsu Kaisen
+		</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.5
-</t>
+			9.5
+			</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-24
-</t>
+		24
+		</t>
         </is>
       </c>
     </row>
@@ -948,22 +948,22 @@
       <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jujutsu Kaisen 0
-</t>
+			Jujutsu Kaisen 0
+		</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.5
-</t>
+			9.5
+			</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-1
-</t>
+		1
+		</t>
         </is>
       </c>
     </row>
@@ -971,22 +971,22 @@
       <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Chainsaw Man
-</t>
+			Chainsaw Man
+		</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.3
-</t>
+			9.3
+			</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-12
-</t>
+		12
+		</t>
         </is>
       </c>
     </row>
@@ -994,22 +994,22 @@
       <c r="A26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cyberpunk: Edgerunners
-</t>
+			Cyberpunk: Edgerunners
+		</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.3
-</t>
+			9.3
+			</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-10
-</t>
+		10
+		</t>
         </is>
       </c>
     </row>
@@ -1017,22 +1017,22 @@
       <c r="A27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shigatsu wa Kimi no Uso
-</t>
+			Shigatsu wa Kimi no Uso
+		</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.3
-</t>
+			9.3
+			</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-22
-</t>
+		22
+		</t>
         </is>
       </c>
     </row>
@@ -1040,22 +1040,22 @@
       <c r="A28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sono Bisque Doll wa Koi wo Suru
-</t>
+			Sono Bisque Doll wa Koi wo Suru
+		</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.3
-</t>
+			9.3
+			</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-12
-</t>
+		12
+		</t>
         </is>
       </c>
     </row>
@@ -1063,22 +1063,22 @@
       <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sword Art Online: Progressive - Hoshinaki Yoru no Aria
-</t>
+			Sword Art Online: Progressive - Hoshinaki Yoru no Aria
+		</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.3
-</t>
+			9.3
+			</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-1
-</t>
+		1
+		</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       <c r="A30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sword Art Online: Progressive - Kuraki Yuuyami no Scherzo
-</t>
+			Sword Art Online: Progressive - Kuraki Yuuyami no Scherzo
+		</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.3
-</t>
+			9.3
+			</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-1
-</t>
+		1
+		</t>
         </is>
       </c>
     </row>
@@ -1109,22 +1109,6132 @@
       <c r="A31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shokugeki no Souma
-</t>
+			Shokugeki no Souma
+		</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-9.2
-</t>
+			9.2
+			</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-24
-</t>
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shokugeki no Souma: Gou no Sara
+		</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.2
+			</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shokugeki no Souma: Ni no Sara
+		</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.2
+			</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shokugeki no Souma: San no Sara
+		</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.2
+			</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shokugeki no Souma: San no Sara - Tootsuki Ressha-hen
+		</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.2
+			</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shokugeki no Souma: Shin no Sara
+		</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.2
+			</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			THE LAST: NARUTO THE MOVIE
+		</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.2
+			</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Buddy Daddies
+		</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.1
+			</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Paripi Koumei
+		</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.1
+			</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Seishun Buta Yarou wa Bunny Girl Senpai no Yume wo Minai
+		</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.1
+			</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Seishun Buta Yarou wa Yumemiru Shoujo no Yume wo Minai
+		</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.1
+			</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Suzume no Tojimari
+		</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.1
+			</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tonikaku Kawaii
+		</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.1
+			</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tonikaku Kawaii Season 2
+		</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.1
+			</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tonikaku Kawaii: SNS
+		</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9.1
+			</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fate/stay night [Heaven's Feel] III. spring song
+		</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Koe no Katachi
+		</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Made in Abyss
+		</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Made in Abyss: Fukaki Tamashii no Reimei
+		</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sword Art Online
+		</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sword Art Online: Alicization
+		</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sword Art Online: Alicization - War of Underworld
+		</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sword Art Online: Alicization - War of Underworld Part 2
+		</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		11
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tensei Shitara Slime Datta Ken
+		</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tensei Shitara Slime Datta Ken 2nd Season
+		</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tensei Shitara Slime Datta Ken 2nd Season Part 2
+		</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tensei Shitara Slime Datta Ken: Guren no Kizuna-hen
+		</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			9
+			</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Dr. STONE
+		</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.9
+			</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Dr. STONE: Ryuusui
+		</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.9
+			</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Dr. STONE: STONE WARS
+		</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.9
+			</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		11
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			takt op.Destiny
+		</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.9
+			</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			VINLAND SAGA
+		</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.9
+			</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			VINLAND SAGA SEASON 2
+		</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.9
+			</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Zombie Land Saga
+		</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.9
+			</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Zombie Land Saga: Revenge
+		</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.9
+			</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Bubble
+		</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Haikyuu!!
+		</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Haikyuu!! 2nd Season
+		</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Haikyuu!! TO THE TOP
+		</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Haikyuu!! TO THE TOP 2
+		</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Haikyuu!!: Karasuno Koukou VS Shiratorizawa Gakuen Koukou
+		</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		10
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Horimiya
+		</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kaguya-sama wa Kokurasetai: Tensaitachi no Renai Zunousen
+		</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kaguya-sama wa Kokurasetai: Ultra Romantic
+		</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kaguya-sama wa Kokurasetai?: Tensaitachi no Renai Zunousen
+		</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Lycoris Recoil
+		</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mushoku Tensei: Isekai Ittara Honki Dasu
+		</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		11
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mushoku Tensei: Isekai Ittara Honki Dasu Part 2
+		</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Re:Zero kara Hajimeru Isekai Seikatsu
+		</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Re:Zero kara Hajimeru Isekai Seikatsu 2nd Season
+		</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Re:Zero kara Hajimeru Isekai Seikatsu 2nd Season Part 2
+		</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			SPY×FAMILY
+		</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			SPY×FAMILY Part 2
+		</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Violet Evergarden
+		</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Vivy: Fluorite Eye’s Song
+		</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.7
+			</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			BIRDIE WING: Golf Girls' Story
+		</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Blue Lock
+		</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Darling in the Franxx
+		</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kami no Tou: Tower of God
+		</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kemono Jihen
+		</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kimi no Na wa.
+		</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kimi no Suizou wo Tabetai
+		</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Komi-san wa, Komyushou desu.
+		</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mob Psycho 100
+		</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mob Psycho 100 II
+		</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sekai Saikou no Ansatsusha, Isekai Kizoku ni Tensei suru
+		</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tate no Yuusha no Nariagari
+		</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tate no Yuusha no Nariagari Season 2
+		</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tomo-chan wa Onnanoko!
+		</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Wotaku ni Koi wa Muzukashii
+		</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		11
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Yofukashi no Uta
+		</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.5
+			</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Boku no Kokoro no Yabai Yatsu
+		</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Cowboy Bebop
+		</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		26
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			DEATH NOTE
+		</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		37
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fate/stay night [Heaven's Feel] II. lost butterfly
+		</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			HUNTER×HUNTER (2011)
+		</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		148
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Koori Zokusei Danshi to Cool na Douryou Joshi
+		</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO
+		</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		220
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Otonari ni Ginga
+		</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tantei wa mou, Shindeiru.
+		</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tengen Toppa Gurren Lagann
+		</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		27
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tengen Toppa Gurren Lagann: Lagann-hen
+		</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Yakusoku no Neverland
+		</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Yamada-kun to Lv999 no Koi wo Suru
+		</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.3
+			</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Ano Hi Mita Hana no Namae wo Bokutachi wa Mada Shiranai.
+		</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		11
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Durarara!!
+		</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Durarara!!x2 Ketsu
+		</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Durarara!!x2 Shou
+		</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Durarara!!x2 Ten
+		</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fate/stay night: Unlimited Blade Works
+		</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fate/stay night: Unlimited Blade Works 2nd Season
+		</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fumetsu no Anata e
+		</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		20
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Gintama
+		</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		201
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Hagane no Renkinjutsushi: FULLMETAL ALCHEMIST
+		</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		64
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kiseijuu: Sei no Kakuritsu
+		</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Noragami
+		</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Noragami ARAGOTO
+		</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Senpai ga Uzai Kouhai no Hanashi
+		</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			THE GOD OF HIGH SCHOOL
+		</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tokyo Revengers
+		</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8.1
+			</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fate/Zero
+		</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8
+			</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fate/Zero 2nd Season
+		</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8
+			</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kobayashi-san Chi no Maidragon
+		</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8
+			</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kobayashi-san Chi no Maidragon S
+		</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8
+			</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kono Subarashii Sekai ni Shukufuku wo!
+		</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8
+			</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		10
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kono Subarashii Sekai ni Shukufuku wo! 2
+		</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8
+			</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		10
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kono Subarashii Sekai ni Shukufuku wo! Kurenai Densetsu
+		</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8
+			</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sentouin, Hakenshimasu!
+		</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8
+			</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tsuki ga Michibiku Isekai Douchuu
+		</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			8
+			</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Akame ga Kill!
+		</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Ansatsu Kyoushitsu
+		</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		22
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Ansatsu Kyoushitsu 2
+		</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			BANANA FISH
+		</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Boku dake ga Inai Machi
+		</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Xian Wang De Richang Shenghuo
+		</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		15
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Xian Wang De Richang Shenghuo 2
+		</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Xian Wang De Richang Shenghuo 3
+		</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Yahari Ore no Seishun Love Come wa Machigatteiru.
+		</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Yahari Ore no Seishun Love Come wa Machigatteiru. Kan
+		</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Yahari Ore no Seishun Love Come wa Machigatteiru. Zoku
+		</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e
+		</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e 2nd Season
+		</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.9
+			</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Bokutachi no Remake
+		</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.8
+			</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka
+		</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.8
+			</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka II
+		</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.8
+			</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka III
+		</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.8
+			</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka IV: Shin Shou Meikyuu-hen
+		</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.8
+			</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		11
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka IV: Shin Shou Yakusai-hen
+		</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.8
+			</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		11
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Rikei ga Koi ni Ochita no de Shoumei shitemita.
+		</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.8
+			</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Rikei ga Koi ni Ochita no de Shoumei shitemita. r=1-sinθ (Heart)
+		</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.8
+			</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			BLEACH
+		</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		366
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Bungou Stray Dogs
+		</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Date A Live
+		</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Date A Live II
+		</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		10
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Date A Live III
+		</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Edomae Elf
+		</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Enen no Shouboutai
+		</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Enen no Shouboutai: Ni no Shou
+		</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fate/stay night [Heaven's Feel] I. presage flower
+		</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fruits Basket: 1st Season
+		</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fruits Basket: 2nd Season
+		</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fruits Basket: The Final
+		</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Hataraku Maou-sama!
+		</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Hataraku Maou-sama!!
+		</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kaizoku Oujo
+		</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kawaii dake ja Nai Shikimori-san
+		</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kill la Kill
+		</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Peach Boy Riverside
+		</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Plunderer
+		</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shuumatsu no Valkyrie
+		</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Steins;Gate
+		</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tokyo Ghoul
+		</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.7
+			</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Ao no Exorcist
+		</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.6
+			</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Ao no Exorcist: Kyoto Fujouou-hen
+		</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.6
+			</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Hataraku Saibou
+		</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.6
+			</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Hataraku Saibou!!
+		</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.6
+			</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		8
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Akiba Meido Sensou
+		</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Angel Beats!
+		</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Hataraku Saibou BLACK
+		</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			High School DxD
+		</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			High School DxD BorN
+		</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			High School DxD HERO
+		</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			High School DxD NEW
+		</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kimi to Boku no Saigo no Senjou, Aruiwa Sekai ga Hajimaru Seisen
+		</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			One Punch Man
+		</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			One Punch Man 2
+		</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Owari no Seraph
+		</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Owari no Seraph: Nagoya Kessen-hen
+		</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shin no Nakama ja Nai to Yuusha no Party wo Oidasareta node, Henkyou de Slow Life suru Koto ni shimashita
+		</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tsuki to Laika to Nosferatu
+		</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.5
+			</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Baccano!
+		</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Death Parade
+		</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Engage Kiss
+		</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Isekai Maou to Shoukan Shoujo no Dorei Majutsu
+		</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Isekai Maou to Shoukan Shoujo no Dorei Majutsu Ω
+		</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		10
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Jahy-sama wa Kujikenai!
+		</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		20
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Jaku-Chara Tomozaki-kun
+		</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Log Horizon
+		</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Log Horizon 2
+		</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Log Horizon: Entaku Houkai
+		</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Maou Gakuin no Futekigousha: Shijou Saikyou no Maou no Shiso, Tensei shite Shison-tachi no Gakkou e Kayou
+		</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Panty &amp; Stocking with Garterbelt
+		</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shinobi no Ittoki
+		</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Toradora!
+		</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		25
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			World Trigger
+		</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		73
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			World Trigger 2nd Season
+		</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			World Trigger 3rd Season
+		</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.3
+			</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		14
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Akuyaku Reijou nano de Last Boss wo Kattemimashita
+		</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.1
+			</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Domestic na Kanojo
+		</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.1
+			</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kage no Jitsuryokusha ni Naritakute!
+		</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.1
+			</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		20
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Metal Fight Beyblade 4D
+		</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.1
+			</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		52
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Slime Taoshite 300-nen, Shiranai Uchi ni Level MAX ni Nattemashita
+		</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.1
+			</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tensai Ouji no Akaji Kokka Saisei Jutsu
+		</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7.1
+			</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Date A Live Movie: Mayuri Judgement
+		</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7
+			</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Genjitsu Shugi Yuusha no Oukoku Saikenki
+		</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7
+			</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Genjitsu Shugi Yuusha no Oukoku Saikenki Part 2
+		</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			7
+			</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kakkou no Iinazuke
+		</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.9
+			</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kanojo mo Kanojo
+		</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.9
+			</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kanojo, Okarishimasu
+		</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.9
+			</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kobayashi-san Chi no Maidragon: Valentine, Soshite Onsen! (Amari Kitai Shinaide Kudasai)
+		</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.9
+			</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			No Game No Life
+		</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.9
+			</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Ore dake Haireru Kakushi Dungeon
+		</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.9
+			</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Osananajimi ga Zettai ni Makenai Love Come
+		</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.9
+			</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shimoneta to Iu Gainen ga Sonzai Shinai Taikutsu na Sekai
+		</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.9
+			</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Death March Kara Hajimaru Isekai Kyousoukyoku
+		</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.7
+			</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Hige wo Soru. Soshite Joshikousei wo Hirou.
+		</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.7
+			</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NOBLESSE
+		</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.7
+			</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Saikin Yatotta Maid ga Ayashii
+		</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.7
+			</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		11
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shin Seiki Evangelion
+		</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.7
+			</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		26
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shin Seiki Evangelion Movie: Air / Magokoro wo, Kimi ni
+		</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.7
+			</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Goblin Slayer
+		</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.5
+			</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Goblin Slayer: GOBLIN'S CROWN
+		</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.5
+			</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kinsou no Vermeil: Gakeppuchi Majutsushi wa Saikyou no Yakusai to Mahou Sekai wo Tsuki Susumu
+		</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.5
+			</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tokyo Ghoul √A
+		</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.5
+			</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fate/stay night Movie: UNLIMITED BLADE WORKS
+		</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Fuufu Ijou, Koibito Miman.
+		</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Koroshi Ai
+		</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Monster Musume no Iru Nichijou
+		</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Seirei Gensouki
+		</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Gleipnir
+		</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.1
+			</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Spy Kyoushitsu
+		</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.1
+			</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sword Art Online II
+		</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.9
+			</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tokyo Ghoul:re
+		</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.9
+			</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tokyo Ghoul:re 2
+		</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.9
+			</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mamahaha no Tsurego ga Motokano datta
+		</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.7
+			</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shuumatsu no Harem
+		</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.7
+			</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		11
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Hajimete no Gal
+		</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.5
+			</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		10
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shikkakumon no Saikyou Kenja
+		</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.5
+			</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Chuunibyou demo Koi ga Shitai!
+		</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.3
+			</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Chuunibyou demo Koi ga Shitai! Ren
+		</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.3
+			</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Akudama Drive
+		</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.1
+			</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Masamune-kun no Revenge
+		</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.1
+			</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Deatte 5-byou de Battle
+		</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.9
+			</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shinka no Mi: Shiranai Uchi ni Kachigumi Jinsei
+		</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.9
+			</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			100-man no Inochi no Ue ni Ore wa Tatteiru
+		</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.7
+			</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			100-man no Inochi no Ue ni Ore wa Tatteiru 2nd Season
+		</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.7
+			</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Black Bullet
+		</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.7
+			</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sousei no Onmyouji
+		</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.7
+			</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		50
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mahouka Koukou no Rettousei
+		</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.5
+			</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		26
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mahouka Koukou no Rettousei: Raihousha-hen
+		</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.5
+			</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mahoutsukai no Yome
+		</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.5
+			</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Gamers!
+		</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			2.1
+			</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Go-toubun no Hanayome
+		</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			2
+			</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			BLEACH: MEMORIES OF NOBODY
+		</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			BLEACH: The DiamondDust Rebellion - Mou Hitotsu no Hyourinmaru
+		</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Chuunibyou demo Koi ga Shitai!: Kirameki no… Slapstick Noel
+		</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Cider no You ni Kotoba ga Wakiagaru
+		</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Date A Live: DATE TO DATE
+		</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka III OVA
+		</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Durarara!!x2 Ten: Onoroke Chakapoko
+		</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Hataraku Saibou: Kaze Shoukougun
+		</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kaguya-sama wa Kokurasetai: Tensaitachi no Renai Zunousen OVA
+		</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Metal Fight Beyblade
+		</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		51
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mob Psycho 100: Daiikkai Rei toka Soudansho Ian Ryokou - Kokoro Mitasu Iyashi no Tabi
+		</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mononoke-hime
+		</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mushoku Tensei: Isekai Ittara Honki Dasu Part 2 - Eris no Goblin Toubatsu
+		</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Nande Koko ni Sensei ga!?
+		</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Blood Prison
+		</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Dai Gekitotsu! Maboroshi no Chitei Iseki Dattebayo
+		</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Dai Katsugeki! Yuki Hime Ninpouchou Dattebayo!!
+		</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Shippuuden - Hi no Ishi wo Tsugu Mono
+		</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Shippuuden - Kizuna
+		</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Shippuuden - The Lost Tower
+		</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			ONE PIECE FILM: RED
+		</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			ROAD OF NARUTO
+		</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			ROAD TO NINJA: NARUTO THE MOVIE
+		</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Saiki Kusuo no Ψ-nan
+		</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		120
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sen to Chihiro no Kamikakushi
+		</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shingeki no Kyojin Gaiden: Kuinaki Sentaku
+		</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		2
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sword Art Online: Ordinal Scale
+		</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tonikaku Kawaii: Seifuku
+		</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			VINLAND SAGA SEASON 2: Drowning in the Shadow
+		</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			VINLAND SAGA SEASON 2: Same old story
+		</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Violet Evergarden Movie
+		</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Wotaku ni Koi wa Muzukashii OVA
+		</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		3
+		</t>
         </is>
       </c>
     </row>

--- a/AnilistShows.xlsx
+++ b/AnilistShows.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C305"/>
+  <dimension ref="A1:C362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,21 +971,21 @@
       <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Chainsaw Man
+			Jujutsu Kaisen 2nd Season
 		</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			9.3
+			9.5
 			</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		23
 		</t>
         </is>
       </c>
@@ -994,7 +994,7 @@
       <c r="A26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Cyberpunk: Edgerunners
+			Chainsaw Man
 		</t>
         </is>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		10
+		12
 		</t>
         </is>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="A27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shigatsu wa Kimi no Uso
+			Cyberpunk: Edgerunners
 		</t>
         </is>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		22
+		10
 		</t>
         </is>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="A28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sono Bisque Doll wa Koi wo Suru
+			Shigatsu wa Kimi no Uso
 		</t>
         </is>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		22
 		</t>
         </is>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sword Art Online: Progressive - Hoshinaki Yoru no Aria
+			Sono Bisque Doll wa Koi wo Suru
 		</t>
         </is>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="A30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sword Art Online: Progressive - Kuraki Yuuyami no Scherzo
+			Sword Art Online: Progressive - Hoshinaki Yoru no Aria
 		</t>
         </is>
       </c>
@@ -1109,21 +1109,21 @@
       <c r="A31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shokugeki no Souma
+			Sword Art Online: Progressive - Kuraki Yuuyami no Scherzo
 		</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			9.2
+			9.3
 			</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		1
 		</t>
         </is>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="A32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shokugeki no Souma: Gou no Sara
+			Shokugeki no Souma
 		</t>
         </is>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		24
 		</t>
         </is>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="A33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shokugeki no Souma: Ni no Sara
+			Shokugeki no Souma: Gou no Sara
 		</t>
         </is>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="A34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shokugeki no Souma: San no Sara
+			Shokugeki no Souma: Ni no Sara
 		</t>
         </is>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -1201,7 +1201,7 @@
       <c r="A35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shokugeki no Souma: San no Sara - Tootsuki Ressha-hen
+			Shokugeki no Souma: San no Sara
 		</t>
         </is>
       </c>
@@ -1224,7 +1224,7 @@
       <c r="A36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shokugeki no Souma: Shin no Sara
+			Shokugeki no Souma: San no Sara - Tootsuki Ressha-hen
 		</t>
         </is>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="A37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			THE LAST: NARUTO THE MOVIE
+			Shokugeki no Souma: Shin no Sara
 		</t>
         </is>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -1270,21 +1270,21 @@
       <c r="A38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Buddy Daddies
+			THE LAST: NARUTO THE MOVIE
 		</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			9.1
+			9.2
 			</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="A39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Paripi Koumei
+			Bartender: Kami no Glass
 		</t>
         </is>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="A40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Seishun Buta Yarou wa Bunny Girl Senpai no Yume wo Minai
+			Buddy Daddies
 		</t>
         </is>
       </c>
@@ -1330,7 +1330,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="A41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Seishun Buta Yarou wa Yumemiru Shoujo no Yume wo Minai
+			Metallic Rouge
 		</t>
         </is>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		13
 		</t>
         </is>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="A42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Suzume no Tojimari
+			Paripi Koumei
 		</t>
         </is>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="A43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tonikaku Kawaii
+			Seishun Buta Yarou wa Bunny Girl Senpai no Yume wo Minai
 		</t>
         </is>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="A44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tonikaku Kawaii Season 2
+			Seishun Buta Yarou wa Yumemiru Shoujo no Yume wo Minai
 		</t>
         </is>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="A45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tonikaku Kawaii: SNS
+			Suzume no Tojimari
 		</t>
         </is>
       </c>
@@ -1454,21 +1454,21 @@
       <c r="A46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fate/stay night [Heaven's Feel] III. spring song
+			Tonikaku Kawaii
 		</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			9
+			9.1
 			</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -1477,21 +1477,21 @@
       <c r="A47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Koe no Katachi
+			Tonikaku Kawaii Season 2
 		</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			9
+			9.1
 			</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -1500,21 +1500,21 @@
       <c r="A48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Made in Abyss
+			Tonikaku Kawaii: Joshikou-hen
 		</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			9
+			9.1
 			</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		4
 		</t>
         </is>
       </c>
@@ -1523,14 +1523,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Made in Abyss: Fukaki Tamashii no Reimei
+			Tonikaku Kawaii: SNS
 		</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			9
+			9.1
 			</t>
         </is>
       </c>
@@ -1546,21 +1546,21 @@
       <c r="A50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sword Art Online
+			Yubisaki to Renren
 		</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			9
+			9.1
 			</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		12
 		</t>
         </is>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="A51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sword Art Online: Alicization
+			Fate/stay night [Heaven's Feel] III. spring song
 		</t>
         </is>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		1
 		</t>
         </is>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="A52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sword Art Online: Alicization - War of Underworld
+			Koe no Katachi
 		</t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="A53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sword Art Online: Alicization - War of Underworld Part 2
+			Made in Abyss
 		</t>
         </is>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		11
+		13
 		</t>
         </is>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="A54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tensei Shitara Slime Datta Ken
+			Made in Abyss: Fukaki Tamashii no Reimei
 		</t>
         </is>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		1
 		</t>
         </is>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="A55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tensei Shitara Slime Datta Ken 2nd Season
+			Sword Art Online
 		</t>
         </is>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		25
 		</t>
         </is>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="A56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tensei Shitara Slime Datta Ken 2nd Season Part 2
+			Sword Art Online: Alicization
 		</t>
         </is>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		24
 		</t>
         </is>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="A57" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tensei Shitara Slime Datta Ken: Guren no Kizuna-hen
+			Sword Art Online: Alicization - War of Underworld
 		</t>
         </is>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -1730,21 +1730,21 @@
       <c r="A58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Dr. STONE
+			Sword Art Online: Alicization - War of Underworld Part 2
 		</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.9
+			9
 			</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		11
 		</t>
         </is>
       </c>
@@ -1753,21 +1753,21 @@
       <c r="A59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Dr. STONE: Ryuusui
+			Tensei Shitara Slime Datta Ken
 		</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.9
+			9
 			</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		24
 		</t>
         </is>
       </c>
@@ -1776,21 +1776,21 @@
       <c r="A60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Dr. STONE: STONE WARS
+			Tensei Shitara Slime Datta Ken 2nd Season
 		</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.9
+			9
 			</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		11
+		12
 		</t>
         </is>
       </c>
@@ -1799,14 +1799,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			takt op.Destiny
+			Tensei Shitara Slime Datta Ken 2nd Season Part 2
 		</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.9
+			9
 			</t>
         </is>
       </c>
@@ -1822,14 +1822,14 @@
       <c r="A62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			VINLAND SAGA
+			Tensei Shitara Slime Datta Ken 3rd Season
 		</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.9
+			9
 			</t>
         </is>
       </c>
@@ -1845,21 +1845,21 @@
       <c r="A63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			VINLAND SAGA SEASON 2
+			Tensei Shitara Slime Datta Ken: Coleus no Yume
 		</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.9
+			9
 			</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		3
 		</t>
         </is>
       </c>
@@ -1868,21 +1868,21 @@
       <c r="A64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Zombie Land Saga
+			Tensei Shitara Slime Datta Ken: Guren no Kizuna-hen
 		</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.9
+			9
 			</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="A65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Zombie Land Saga: Revenge
+			Dr. STONE
 		</t>
         </is>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		24
 		</t>
         </is>
       </c>
@@ -1914,21 +1914,21 @@
       <c r="A66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Bubble
+			Dr. STONE: NEW WORLD
 		</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.7
+			8.9
 			</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		11
 		</t>
         </is>
       </c>
@@ -1937,21 +1937,21 @@
       <c r="A67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Haikyuu!!
+			Dr. STONE: Ryuusui
 		</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.7
+			8.9
 			</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		1
 		</t>
         </is>
       </c>
@@ -1960,21 +1960,21 @@
       <c r="A68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Haikyuu!! 2nd Season
+			Dr. STONE: STONE WARS
 		</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.7
+			8.9
 			</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		11
 		</t>
         </is>
       </c>
@@ -1983,21 +1983,21 @@
       <c r="A69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Haikyuu!! TO THE TOP
+			Ore dake Level Up na Ken
 		</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.7
+			8.9
 			</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -2006,14 +2006,14 @@
       <c r="A70" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Haikyuu!! TO THE TOP 2
+			takt op.Destiny
 		</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.7
+			8.9
 			</t>
         </is>
       </c>
@@ -2029,21 +2029,21 @@
       <c r="A71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Haikyuu!!: Karasuno Koukou VS Shiratorizawa Gakuen Koukou
+			VINLAND SAGA
 		</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.7
+			8.9
 			</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		10
+		24
 		</t>
         </is>
       </c>
@@ -2052,21 +2052,21 @@
       <c r="A72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Horimiya
+			VINLAND SAGA SEASON 2
 		</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.7
+			8.9
 			</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		24
 		</t>
         </is>
       </c>
@@ -2075,21 +2075,21 @@
       <c r="A73" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kaguya-sama wa Kokurasetai: Tensaitachi no Renai Zunousen
+			WIND BREAKER
 		</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.7
+			8.9
 			</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -2098,21 +2098,21 @@
       <c r="A74" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kaguya-sama wa Kokurasetai: Ultra Romantic
+			Zombie Land Saga
 		</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.7
+			8.9
 			</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -2121,14 +2121,14 @@
       <c r="A75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kaguya-sama wa Kokurasetai?: Tensaitachi no Renai Zunousen
+			Zombie Land Saga: Revenge
 		</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.7
+			8.9
 			</t>
         </is>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="A76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Lycoris Recoil
+			Bubble
 		</t>
         </is>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		1
 		</t>
         </is>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="A77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Mushoku Tensei: Isekai Ittara Honki Dasu
+			Haikyuu!!
 		</t>
         </is>
       </c>
@@ -2181,7 +2181,7 @@
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		11
+		25
 		</t>
         </is>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="A78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Mushoku Tensei: Isekai Ittara Honki Dasu Part 2
+			Haikyuu!! 2nd Season
 		</t>
         </is>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		25
 		</t>
         </is>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="A79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Re:Zero kara Hajimeru Isekai Seikatsu
+			Haikyuu!! TO THE TOP
 		</t>
         </is>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		13
 		</t>
         </is>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="A80" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Re:Zero kara Hajimeru Isekai Seikatsu 2nd Season
+			Haikyuu!! TO THE TOP 2
 		</t>
         </is>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="A81" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Re:Zero kara Hajimeru Isekai Seikatsu 2nd Season Part 2
+			Haikyuu!!: Karasuno Koukou VS Shiratorizawa Gakuen Koukou
 		</t>
         </is>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		10
 		</t>
         </is>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="A82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			SPY×FAMILY
+			Horimiya
 		</t>
         </is>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="A83" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			SPY×FAMILY Part 2
+			Horimiya: piece
 		</t>
         </is>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="A84" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Violet Evergarden
+			Jigokuraku
 		</t>
         </is>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="A85" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Vivy: Fluorite Eye’s Song
+			Kaguya-sama wa Kokurasetai: Tensaitachi no Renai Zunousen
 		</t>
         </is>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -2374,14 +2374,14 @@
       <c r="A86" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			BIRDIE WING: Golf Girls' Story
+			Kaguya-sama wa Kokurasetai: Ultra Romantic
 		</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
@@ -2397,21 +2397,21 @@
       <c r="A87" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Blue Lock
+			Kaguya-sama wa Kokurasetai?: Tensaitachi no Renai Zunousen
 		</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		12
 		</t>
         </is>
       </c>
@@ -2420,21 +2420,21 @@
       <c r="A88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Darling in the Franxx
+			Kaijuu 8-gou
 		</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		12
 		</t>
         </is>
       </c>
@@ -2443,21 +2443,21 @@
       <c r="A89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kami no Tou: Tower of God
+			Kusuriya no Hitorigoto
 		</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		24
 		</t>
         </is>
       </c>
@@ -2466,21 +2466,21 @@
       <c r="A90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kemono Jihen
+			Lycoris Recoil
 		</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -2489,21 +2489,21 @@
       <c r="A91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kimi no Na wa.
+			Mushoku Tensei II: Isekai Ittara Honki Dasu
 		</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		13
 		</t>
         </is>
       </c>
@@ -2512,21 +2512,21 @@
       <c r="A92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kimi no Suizou wo Tabetai
+			Mushoku Tensei: Isekai Ittara Honki Dasu
 		</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		11
 		</t>
         </is>
       </c>
@@ -2535,14 +2535,14 @@
       <c r="A93" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Komi-san wa, Komyushou desu.
+			Mushoku Tensei: Isekai Ittara Honki Dasu Part 2
 		</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
@@ -2558,21 +2558,21 @@
       <c r="A94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Mob Psycho 100
+			Re:Zero kara Hajimeru Isekai Seikatsu
 		</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		25
 		</t>
         </is>
       </c>
@@ -2581,14 +2581,14 @@
       <c r="A95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Mob Psycho 100 II
+			Re:Zero kara Hajimeru Isekai Seikatsu 2nd Season
 		</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
@@ -2604,14 +2604,14 @@
       <c r="A96" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sekai Saikou no Ansatsusha, Isekai Kizoku ni Tensei suru
+			Re:Zero kara Hajimeru Isekai Seikatsu 2nd Season Part 2
 		</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
@@ -2627,21 +2627,21 @@
       <c r="A97" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tate no Yuusha no Nariagari
+			SPY×FAMILY
 		</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		12
 		</t>
         </is>
       </c>
@@ -2650,14 +2650,14 @@
       <c r="A98" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tate no Yuusha no Nariagari Season 2
+			SPY×FAMILY Part 2
 		</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
@@ -2673,14 +2673,14 @@
       <c r="A99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tomo-chan wa Onnanoko!
+			Violet Evergarden
 		</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
@@ -2696,21 +2696,21 @@
       <c r="A100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Wotaku ni Koi wa Muzukashii
+			Vivy: Fluorite Eye’s Song
 		</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.5
+			8.7
 			</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		11
+		13
 		</t>
         </is>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="A101" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Yofukashi no Uta
+			BIRDIE WING: Golf Girls' Story
 		</t>
         </is>
       </c>
@@ -2742,14 +2742,14 @@
       <c r="A102" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Boku no Kokoro no Yabai Yatsu
+			BIRDIE WING: Golf Girls' Story Season 2
 		</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
@@ -2765,21 +2765,21 @@
       <c r="A103" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Cowboy Bebop
+			Blue Lock
 		</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		26
+		24
 		</t>
         </is>
       </c>
@@ -2788,21 +2788,21 @@
       <c r="A104" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			DEATH NOTE
+			Darling in the Franxx
 		</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		37
+		24
 		</t>
         </is>
       </c>
@@ -2811,21 +2811,21 @@
       <c r="A105" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fate/stay night [Heaven's Feel] II. lost butterfly
+			Dororo
 		</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		24
 		</t>
         </is>
       </c>
@@ -2834,21 +2834,21 @@
       <c r="A106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			HUNTER×HUNTER (2011)
+			Fate/strange Fake: Whispers of Dawn
 		</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		148
+		1
 		</t>
         </is>
       </c>
@@ -2857,21 +2857,21 @@
       <c r="A107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Koori Zokusei Danshi to Cool na Douryou Joshi
+			Kami no Tou: Tower of God
 		</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -2880,21 +2880,21 @@
       <c r="A108" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			NARUTO
+			Kemono Jihen
 		</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		220
+		12
 		</t>
         </is>
       </c>
@@ -2903,21 +2903,21 @@
       <c r="A109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Otonari ni Ginga
+			Kimi no Na wa.
 		</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -2926,21 +2926,21 @@
       <c r="A110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tantei wa mou, Shindeiru.
+			Kimi no Suizou wo Tabetai
 		</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -2949,21 +2949,21 @@
       <c r="A111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tengen Toppa Gurren Lagann
+			Komi-san wa, Komyushou desu.
 		</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		27
+		12
 		</t>
         </is>
       </c>
@@ -2972,21 +2972,21 @@
       <c r="A112" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tengen Toppa Gurren Lagann: Lagann-hen
+			Majo to Yajuu
 		</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -2995,14 +2995,14 @@
       <c r="A113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Yakusoku no Neverland
+			Mob Psycho 100
 		</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
@@ -3018,14 +3018,14 @@
       <c r="A114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Yamada-kun to Lv999 no Koi wo Suru
+			Mob Psycho 100 II
 		</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.3
+			8.5
 			</t>
         </is>
       </c>
@@ -3041,21 +3041,21 @@
       <c r="A115" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Ano Hi Mita Hana no Namae wo Bokutachi wa Mada Shiranai.
+			Mob Psycho 100 III
 		</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.5
 			</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		11
+		12
 		</t>
         </is>
       </c>
@@ -3064,21 +3064,21 @@
       <c r="A116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Durarara!!
+			Sekai Saikou no Ansatsusha, Isekai Kizoku ni Tensei suru
 		</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.5
 			</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		12
 		</t>
         </is>
       </c>
@@ -3087,21 +3087,21 @@
       <c r="A117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Durarara!!x2 Ketsu
+			Tate no Yuusha no Nariagari
 		</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.5
 			</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		25
 		</t>
         </is>
       </c>
@@ -3110,21 +3110,21 @@
       <c r="A118" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Durarara!!x2 Shou
+			Tate no Yuusha no Nariagari Season 2
 		</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.5
 			</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -3133,21 +3133,21 @@
       <c r="A119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Durarara!!x2 Ten
+			Tomo-chan wa Onnanoko!
 		</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.5
 			</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -3156,21 +3156,21 @@
       <c r="A120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fate/stay night: Unlimited Blade Works
+			Wotaku ni Koi wa Muzukashii
 		</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.5
 			</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		11
 		</t>
         </is>
       </c>
@@ -3179,14 +3179,14 @@
       <c r="A121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fate/stay night: Unlimited Blade Works 2nd Season
+			Yofukashi no Uta
 		</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.5
 			</t>
         </is>
       </c>
@@ -3202,21 +3202,21 @@
       <c r="A122" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fumetsu no Anata e
+			Zom 100: Zombie ni Naru Made ni Shitai 100 no Koto
 		</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.5
 			</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		20
+		12
 		</t>
         </is>
       </c>
@@ -3225,21 +3225,21 @@
       <c r="A123" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Gintama
+			Boku no Kokoro no Yabai Yatsu
 		</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.3
 			</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		201
+		12
 		</t>
         </is>
       </c>
@@ -3248,21 +3248,21 @@
       <c r="A124" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Hagane no Renkinjutsushi: FULLMETAL ALCHEMIST
+			Boku no Kokoro no Yabai Yatsu 2nd Season
 		</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.3
 			</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		64
+		13
 		</t>
         </is>
       </c>
@@ -3271,21 +3271,21 @@
       <c r="A125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kiseijuu: Sei no Kakuritsu
+			DEATH NOTE
 		</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.3
 			</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		37
 		</t>
         </is>
       </c>
@@ -3294,21 +3294,21 @@
       <c r="A126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Noragami
+			Fate/stay night [Heaven's Feel] II. lost butterfly
 		</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.3
 			</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -3317,21 +3317,21 @@
       <c r="A127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Noragami ARAGOTO
+			HUNTER×HUNTER (2011)
 		</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.3
 			</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		148
 		</t>
         </is>
       </c>
@@ -3340,14 +3340,14 @@
       <c r="A128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Senpai ga Uzai Kouhai no Hanashi
+			Koori Zokusei Danshi to Cool na Douryou Joshi
 		</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.3
 			</t>
         </is>
       </c>
@@ -3363,21 +3363,21 @@
       <c r="A129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			THE GOD OF HIGH SCHOOL
+			NARUTO
 		</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.3
 			</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		220
 		</t>
         </is>
       </c>
@@ -3386,21 +3386,21 @@
       <c r="A130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tokyo Revengers
+			Otonari ni Ginga
 		</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8.1
+			8.3
 			</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		12
 		</t>
         </is>
       </c>
@@ -3409,21 +3409,21 @@
       <c r="A131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fate/Zero
+			SHY
 		</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8
+			8.3
 			</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -3432,14 +3432,14 @@
       <c r="A132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fate/Zero 2nd Season
+			Tantei wa mou, Shindeiru.
 		</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8
+			8.3
 			</t>
         </is>
       </c>
@@ -3455,21 +3455,21 @@
       <c r="A133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kobayashi-san Chi no Maidragon
+			Tengen Toppa Gurren Lagann
 		</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8
+			8.3
 			</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		27
 		</t>
         </is>
       </c>
@@ -3478,21 +3478,21 @@
       <c r="A134" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kobayashi-san Chi no Maidragon S
+			Tengen Toppa Gurren Lagann: Lagann-hen
 		</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8
+			8.3
 			</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -3501,21 +3501,21 @@
       <c r="A135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kono Subarashii Sekai ni Shukufuku wo!
+			Yakusoku no Neverland
 		</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8
+			8.3
 			</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		10
+		12
 		</t>
         </is>
       </c>
@@ -3524,21 +3524,21 @@
       <c r="A136" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kono Subarashii Sekai ni Shukufuku wo! 2
+			Yamada-kun to Lv999 no Koi wo Suru
 		</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8
+			8.3
 			</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		10
+		13
 		</t>
         </is>
       </c>
@@ -3547,21 +3547,21 @@
       <c r="A137" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kono Subarashii Sekai ni Shukufuku wo! Kurenai Densetsu
+			Durarara!!
 		</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8
+			8.1
 			</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		24
 		</t>
         </is>
       </c>
@@ -3570,14 +3570,14 @@
       <c r="A138" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sentouin, Hakenshimasu!
+			Durarara!!x2 Ketsu
 		</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8
+			8.1
 			</t>
         </is>
       </c>
@@ -3593,14 +3593,14 @@
       <c r="A139" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tsuki ga Michibiku Isekai Douchuu
+			Durarara!!x2 Shou
 		</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			8
+			8.1
 			</t>
         </is>
       </c>
@@ -3616,21 +3616,21 @@
       <c r="A140" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Akame ga Kill!
+			Durarara!!x2 Ten
 		</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		12
 		</t>
         </is>
       </c>
@@ -3639,21 +3639,21 @@
       <c r="A141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Ansatsu Kyoushitsu
+			Fate/stay night: Unlimited Blade Works
 		</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		22
+		13
 		</t>
         </is>
       </c>
@@ -3662,21 +3662,21 @@
       <c r="A142" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Ansatsu Kyoushitsu 2
+			Fate/stay night: Unlimited Blade Works 2nd Season
 		</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		13
 		</t>
         </is>
       </c>
@@ -3685,21 +3685,21 @@
       <c r="A143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			BANANA FISH
+			Fumetsu no Anata e
 		</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		20
 		</t>
         </is>
       </c>
@@ -3708,21 +3708,21 @@
       <c r="A144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Boku dake ga Inai Machi
+			Gintama
 		</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		201
 		</t>
         </is>
       </c>
@@ -3731,21 +3731,21 @@
       <c r="A145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Xian Wang De Richang Shenghuo
+			Hagane no Renkinjutsushi: FULLMETAL ALCHEMIST
 		</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		15
+		64
 		</t>
         </is>
       </c>
@@ -3754,21 +3754,21 @@
       <c r="A146" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Xian Wang De Richang Shenghuo 2
+			Kill la Kill
 		</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		24
 		</t>
         </is>
       </c>
@@ -3777,21 +3777,21 @@
       <c r="A147" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Xian Wang De Richang Shenghuo 3
+			Kiseijuu: Sei no Kakuritsu
 		</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		24
 		</t>
         </is>
       </c>
@@ -3800,21 +3800,21 @@
       <c r="A148" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Yahari Ore no Seishun Love Come wa Machigatteiru.
+			Mahou Shoujo Magical Destroyers
 		</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -3823,14 +3823,14 @@
       <c r="A149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Yahari Ore no Seishun Love Come wa Machigatteiru. Kan
+			Noragami
 		</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
@@ -3846,14 +3846,14 @@
       <c r="A150" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Yahari Ore no Seishun Love Come wa Machigatteiru. Zoku
+			Noragami ARAGOTO
 		</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
@@ -3869,14 +3869,14 @@
       <c r="A151" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e
+			Shuumatsu no Valkyrie
 		</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
@@ -3892,14 +3892,14 @@
       <c r="A152" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e 2nd Season
+			THE GOD OF HIGH SCHOOL
 		</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.9
+			8.1
 			</t>
         </is>
       </c>
@@ -3915,21 +3915,21 @@
       <c r="A153" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Bokutachi no Remake
+			Fate/Zero
 		</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.8
+			8
 			</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -3938,21 +3938,21 @@
       <c r="A154" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka
+			Fate/Zero 2nd Season
 		</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.8
+			8
 			</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -3961,21 +3961,21 @@
       <c r="A155" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka II
+			Kobayashi-san Chi no Maidragon
 		</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.8
+			8
 			</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -3984,14 +3984,14 @@
       <c r="A156" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka III
+			Kobayashi-san Chi no Maidragon S
 		</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.8
+			8
 			</t>
         </is>
       </c>
@@ -4007,21 +4007,21 @@
       <c r="A157" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka IV: Shin Shou Meikyuu-hen
+			Kono Subarashii Sekai ni Bakuen wo!
 		</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.8
+			8
 			</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		11
+		12
 		</t>
         </is>
       </c>
@@ -4030,21 +4030,21 @@
       <c r="A158" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka IV: Shin Shou Yakusai-hen
+			Kono Subarashii Sekai ni Shukufuku wo!
 		</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.8
+			8
 			</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		11
+		10
 		</t>
         </is>
       </c>
@@ -4053,21 +4053,21 @@
       <c r="A159" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Rikei ga Koi ni Ochita no de Shoumei shitemita.
+			Kono Subarashii Sekai ni Shukufuku wo! 2
 		</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.8
+			8
 			</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		10
 		</t>
         </is>
       </c>
@@ -4076,21 +4076,21 @@
       <c r="A160" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Rikei ga Koi ni Ochita no de Shoumei shitemita. r=1-sinθ (Heart)
+			Kono Subarashii Sekai ni Shukufuku wo! Kurenai Densetsu
 		</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.8
+			8
 			</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -4099,21 +4099,21 @@
       <c r="A161" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			BLEACH
+			Sentouin, Hakenshimasu!
 		</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			8
 			</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		366
+		12
 		</t>
         </is>
       </c>
@@ -4122,14 +4122,14 @@
       <c r="A162" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Bungou Stray Dogs
+			Tsuki ga Michibiku Isekai Douchuu
 		</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			8
 			</t>
         </is>
       </c>
@@ -4145,21 +4145,21 @@
       <c r="A163" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Date A Live
+			Tsuki ga Michibiku Isekai Douchuu 2nd Season
 		</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			8
 			</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		25
 		</t>
         </is>
       </c>
@@ -4168,21 +4168,21 @@
       <c r="A164" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Date A Live II
+			Akame ga Kill!
 		</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		10
+		24
 		</t>
         </is>
       </c>
@@ -4191,21 +4191,21 @@
       <c r="A165" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Date A Live III
+			Ansatsu Kyoushitsu
 		</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		22
 		</t>
         </is>
       </c>
@@ -4214,21 +4214,21 @@
       <c r="A166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Edomae Elf
+			Ansatsu Kyoushitsu 2
 		</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		25
 		</t>
         </is>
       </c>
@@ -4237,14 +4237,14 @@
       <c r="A167" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Enen no Shouboutai
+			BANANA FISH
 		</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
@@ -4260,21 +4260,21 @@
       <c r="A168" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Enen no Shouboutai: Ni no Shou
+			Boku dake ga Inai Machi
 		</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		12
 		</t>
         </is>
       </c>
@@ -4283,21 +4283,21 @@
       <c r="A169" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fate/stay night [Heaven's Feel] I. presage flower
+			Guilty Crown
 		</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		22
 		</t>
         </is>
       </c>
@@ -4306,21 +4306,21 @@
       <c r="A170" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fruits Basket: 1st Season
+			Senpai ga Uzai Kouhai no Hanashi
 		</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		12
 		</t>
         </is>
       </c>
@@ -4329,21 +4329,21 @@
       <c r="A171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fruits Basket: 2nd Season
+			Xian Wang De Richang Shenghuo
 		</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		15
 		</t>
         </is>
       </c>
@@ -4352,21 +4352,21 @@
       <c r="A172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fruits Basket: The Final
+			Xian Wang De Richang Shenghuo 2
 		</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -4375,21 +4375,21 @@
       <c r="A173" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Hataraku Maou-sama!
+			Xian Wang De Richang Shenghuo 3
 		</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -4398,21 +4398,21 @@
       <c r="A174" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Hataraku Maou-sama!!
+			Yahari Ore no Seishun Love Come wa Machigatteiru.
 		</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -4421,14 +4421,14 @@
       <c r="A175" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kaizoku Oujo
+			Yahari Ore no Seishun Love Come wa Machigatteiru. Kan
 		</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
@@ -4444,21 +4444,21 @@
       <c r="A176" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kawaii dake ja Nai Shikimori-san
+			Yahari Ore no Seishun Love Come wa Machigatteiru. Kan: Dakara, Shishunki wa Owarazu ni, Seishun wa Tsuzuiteiku.
 		</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -4467,21 +4467,21 @@
       <c r="A177" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kill la Kill
+			Yahari Ore no Seishun Love Come wa Machigatteiru. Zoku
 		</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		13
 		</t>
         </is>
       </c>
@@ -4490,14 +4490,14 @@
       <c r="A178" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Peach Boy Riverside
+			Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e
 		</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
@@ -4513,21 +4513,21 @@
       <c r="A179" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Plunderer
+			Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e 2nd Season
 		</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		13
 		</t>
         </is>
       </c>
@@ -4536,21 +4536,21 @@
       <c r="A180" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shuumatsu no Valkyrie
+			Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e 3rd Season
 		</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.9
 			</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -4559,21 +4559,21 @@
       <c r="A181" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Steins;Gate
+			Bokutachi no Remake
 		</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.8
 			</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		12
 		</t>
         </is>
       </c>
@@ -4582,21 +4582,21 @@
       <c r="A182" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tokyo Ghoul
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka
 		</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.7
+			7.8
 			</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -4605,21 +4605,21 @@
       <c r="A183" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Ao no Exorcist
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka II
 		</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.6
+			7.8
 			</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		12
 		</t>
         </is>
       </c>
@@ -4628,14 +4628,14 @@
       <c r="A184" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Ao no Exorcist: Kyoto Fujouou-hen
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka III
 		</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.6
+			7.8
 			</t>
         </is>
       </c>
@@ -4651,21 +4651,21 @@
       <c r="A185" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Hataraku Saibou
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka IV: Shin Shou Meikyuu-hen
 		</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.6
+			7.8
 			</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		11
 		</t>
         </is>
       </c>
@@ -4674,21 +4674,21 @@
       <c r="A186" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Hataraku Saibou!!
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka IV: Shin Shou Yakusai-hen
 		</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.6
+			7.8
 			</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		8
+		11
 		</t>
         </is>
       </c>
@@ -4697,14 +4697,14 @@
       <c r="A187" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Akiba Meido Sensou
+			Rikei ga Koi ni Ochita no de Shoumei shitemita.
 		</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.8
 			</t>
         </is>
       </c>
@@ -4720,21 +4720,21 @@
       <c r="A188" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Angel Beats!
+			Rikei ga Koi ni Ochita no de Shoumei shitemita. r=1-sinθ (Heart)
 		</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.8
 			</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -4743,21 +4743,21 @@
       <c r="A189" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Hataraku Saibou BLACK
+			Ano Hi Mita Hana no Namae wo Bokutachi wa Mada Shiranai.
 		</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		11
 		</t>
         </is>
       </c>
@@ -4766,21 +4766,21 @@
       <c r="A190" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			High School DxD
+			BLEACH
 		</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		366
 		</t>
         </is>
       </c>
@@ -4789,14 +4789,14 @@
       <c r="A191" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			High School DxD BorN
+			Bungou Stray Dogs
 		</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
@@ -4812,21 +4812,21 @@
       <c r="A192" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			High School DxD HERO
+			Bungou Stray Dogs 2nd Season
 		</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -4835,14 +4835,14 @@
       <c r="A193" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			High School DxD NEW
+			Date A Live
 		</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
@@ -4858,21 +4858,21 @@
       <c r="A194" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kimi to Boku no Saigo no Senjou, Aruiwa Sekai ga Hajimaru Seisen
+			Date A Live II
 		</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		10
 		</t>
         </is>
       </c>
@@ -4881,14 +4881,14 @@
       <c r="A195" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			One Punch Man
+			Date A Live III
 		</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
@@ -4904,14 +4904,14 @@
       <c r="A196" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			One Punch Man 2
+			Edomae Elf
 		</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
@@ -4927,21 +4927,21 @@
       <c r="A197" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Owari no Seraph
+			Enen no Shouboutai
 		</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		24
 		</t>
         </is>
       </c>
@@ -4950,21 +4950,21 @@
       <c r="A198" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Owari no Seraph: Nagoya Kessen-hen
+			Enen no Shouboutai: Ni no Shou
 		</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		24
 		</t>
         </is>
       </c>
@@ -4973,21 +4973,21 @@
       <c r="A199" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shin no Nakama ja Nai to Yuusha no Party wo Oidasareta node, Henkyou de Slow Life suru Koto ni shimashita
+			Fate/stay night [Heaven's Feel] I. presage flower
 		</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		1
 		</t>
         </is>
       </c>
@@ -4996,21 +4996,21 @@
       <c r="A200" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tsuki to Laika to Nosferatu
+			Fruits Basket: 1st Season
 		</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.5
+			7.7
 			</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		25
 		</t>
         </is>
       </c>
@@ -5019,21 +5019,21 @@
       <c r="A201" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Baccano!
+			Fruits Basket: 2nd Season
 		</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.7
 			</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		25
 		</t>
         </is>
       </c>
@@ -5042,21 +5042,21 @@
       <c r="A202" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Death Parade
+			Fruits Basket: The Final
 		</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.7
 			</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -5065,21 +5065,21 @@
       <c r="A203" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Engage Kiss
+			Hametsu no Oukoku
 		</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.7
 			</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -5088,21 +5088,21 @@
       <c r="A204" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Isekai Maou to Shoukan Shoujo no Dorei Majutsu
+			Hataraku Maou-sama!
 		</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.7
 			</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -5111,21 +5111,21 @@
       <c r="A205" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Isekai Maou to Shoukan Shoujo no Dorei Majutsu Ω
+			Hataraku Maou-sama!!
 		</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.7
 			</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		10
+		12
 		</t>
         </is>
       </c>
@@ -5134,21 +5134,21 @@
       <c r="A206" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Jahy-sama wa Kujikenai!
+			Hataraku Maou-sama!! 2nd Season
 		</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.7
 			</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		20
+		12
 		</t>
         </is>
       </c>
@@ -5157,14 +5157,14 @@
       <c r="A207" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Jaku-Chara Tomozaki-kun
+			Kaizoku Oujo
 		</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.7
 			</t>
         </is>
       </c>
@@ -5180,21 +5180,21 @@
       <c r="A208" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Log Horizon
+			Kawaii dake ja Nai Shikimori-san
 		</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.7
 			</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		12
 		</t>
         </is>
       </c>
@@ -5203,21 +5203,21 @@
       <c r="A209" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Log Horizon 2
+			Plunderer
 		</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.7
 			</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		24
 		</t>
         </is>
       </c>
@@ -5226,14 +5226,14 @@
       <c r="A210" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Log Horizon: Entaku Houkai
+			Tokyo Ghoul
 		</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.7
 			</t>
         </is>
       </c>
@@ -5249,21 +5249,21 @@
       <c r="A211" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Maou Gakuin no Futekigousha: Shijou Saikyou no Maou no Shiso, Tensei shite Shison-tachi no Gakkou e Kayou
+			Ao no Exorcist
 		</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.6
 			</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		25
 		</t>
         </is>
       </c>
@@ -5272,21 +5272,21 @@
       <c r="A212" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Panty &amp; Stocking with Garterbelt
+			Ao no Exorcist: Kyoto Fujouou-hen
 		</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.6
 			</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -5295,21 +5295,21 @@
       <c r="A213" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shinobi no Ittoki
+			Hataraku Saibou
 		</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.6
 			</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -5318,21 +5318,21 @@
       <c r="A214" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Toradora!
+			Hataraku Saibou!!
 		</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.6
 			</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		25
+		8
 		</t>
         </is>
       </c>
@@ -5341,21 +5341,21 @@
       <c r="A215" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			World Trigger
+			Akiba Meido Sensou
 		</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.5
 			</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		73
+		12
 		</t>
         </is>
       </c>
@@ -5364,14 +5364,14 @@
       <c r="A216" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			World Trigger 2nd Season
+			Eiyuu Kyoushitsu
 		</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.5
 			</t>
         </is>
       </c>
@@ -5387,21 +5387,21 @@
       <c r="A217" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			World Trigger 3rd Season
+			Hataraku Saibou BLACK
 		</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.3
+			7.5
 			</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		14
+		13
 		</t>
         </is>
       </c>
@@ -5410,14 +5410,14 @@
       <c r="A218" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Akuyaku Reijou nano de Last Boss wo Kattemimashita
+			High School DxD
 		</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.1
+			7.5
 			</t>
         </is>
       </c>
@@ -5433,14 +5433,14 @@
       <c r="A219" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Domestic na Kanojo
+			High School DxD BorN
 		</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.1
+			7.5
 			</t>
         </is>
       </c>
@@ -5456,21 +5456,21 @@
       <c r="A220" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kage no Jitsuryokusha ni Naritakute!
+			High School DxD HERO
 		</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.1
+			7.5
 			</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		20
+		13
 		</t>
         </is>
       </c>
@@ -5479,21 +5479,21 @@
       <c r="A221" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Metal Fight Beyblade 4D
+			High School DxD NEW
 		</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.1
+			7.5
 			</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		52
+		12
 		</t>
         </is>
       </c>
@@ -5502,14 +5502,14 @@
       <c r="A222" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Slime Taoshite 300-nen, Shiranai Uchi ni Level MAX ni Nattemashita
+			Kimi to Boku no Saigo no Senjou, Aruiwa Sekai ga Hajimaru Seisen
 		</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.1
+			7.5
 			</t>
         </is>
       </c>
@@ -5525,14 +5525,14 @@
       <c r="A223" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tensai Ouji no Akaji Kokka Saisei Jutsu
+			Owari no Seraph
 		</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7.1
+			7.5
 			</t>
         </is>
       </c>
@@ -5548,21 +5548,21 @@
       <c r="A224" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Date A Live Movie: Mayuri Judgement
+			Owari no Seraph: Nagoya Kessen-hen
 		</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7
+			7.5
 			</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -5571,14 +5571,14 @@
       <c r="A225" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Genjitsu Shugi Yuusha no Oukoku Saikenki
+			Shin no Nakama ja Nai to Yuusha no Party wo Oidasareta node, Henkyou de Slow Life suru Koto ni shimashita
 		</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7
+			7.5
 			</t>
         </is>
       </c>
@@ -5594,21 +5594,21 @@
       <c r="A226" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Genjitsu Shugi Yuusha no Oukoku Saikenki Part 2
+			Tokyo Revengers
 		</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			7
+			7.5
 			</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		24
 		</t>
         </is>
       </c>
@@ -5617,21 +5617,21 @@
       <c r="A227" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kakkou no Iinazuke
+			Tokyo Revengers: Seiya Kessen-hen
 		</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.9
+			7.5
 			</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		13
 		</t>
         </is>
       </c>
@@ -5640,21 +5640,21 @@
       <c r="A228" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kanojo mo Kanojo
+			Tokyo Revengers: Tenjiku-hen
 		</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.9
+			7.5
 			</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -5663,14 +5663,14 @@
       <c r="A229" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kanojo, Okarishimasu
+			Tsuki to Laika to Nosferatu
 		</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.9
+			7.5
 			</t>
         </is>
       </c>
@@ -5686,21 +5686,21 @@
       <c r="A230" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kobayashi-san Chi no Maidragon: Valentine, Soshite Onsen! (Amari Kitai Shinaide Kudasai)
+			Baccano!
 		</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.9
+			7.3
 			</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		13
 		</t>
         </is>
       </c>
@@ -5709,21 +5709,21 @@
       <c r="A231" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			No Game No Life
+			Dark Gathering
 		</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.9
+			7.3
 			</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		25
 		</t>
         </is>
       </c>
@@ -5732,14 +5732,14 @@
       <c r="A232" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Ore dake Haireru Kakushi Dungeon
+			Death Parade
 		</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.9
+			7.3
 			</t>
         </is>
       </c>
@@ -5755,21 +5755,21 @@
       <c r="A233" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Osananajimi ga Zettai ni Makenai Love Come
+			Engage Kiss
 		</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.9
+			7.3
 			</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -5778,14 +5778,14 @@
       <c r="A234" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shimoneta to Iu Gainen ga Sonzai Shinai Taikutsu na Sekai
+			Isekai Maou to Shoukan Shoujo no Dorei Majutsu
 		</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.9
+			7.3
 			</t>
         </is>
       </c>
@@ -5801,21 +5801,21 @@
       <c r="A235" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Death March Kara Hajimaru Isekai Kyousoukyoku
+			Isekai Maou to Shoukan Shoujo no Dorei Majutsu Ω
 		</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.7
+			7.3
 			</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		10
 		</t>
         </is>
       </c>
@@ -5824,21 +5824,21 @@
       <c r="A236" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Hige wo Soru. Soshite Joshikousei wo Hirou.
+			Jahy-sama wa Kujikenai!
 		</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.7
+			7.3
 			</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		20
 		</t>
         </is>
       </c>
@@ -5847,21 +5847,21 @@
       <c r="A237" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			NOBLESSE
+			Jaku-Chara Tomozaki-kun
 		</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.7
+			7.3
 			</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -5870,21 +5870,21 @@
       <c r="A238" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Saikin Yatotta Maid ga Ayashii
+			Log Horizon
 		</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.7
+			7.3
 			</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		11
+		25
 		</t>
         </is>
       </c>
@@ -5893,21 +5893,21 @@
       <c r="A239" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shin Seiki Evangelion
+			Log Horizon 2
 		</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.7
+			7.3
 			</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		26
+		25
 		</t>
         </is>
       </c>
@@ -5916,21 +5916,21 @@
       <c r="A240" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shin Seiki Evangelion Movie: Air / Magokoro wo, Kimi ni
+			Log Horizon: Entaku Houkai
 		</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.7
+			7.3
 			</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -5939,21 +5939,21 @@
       <c r="A241" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Goblin Slayer
+			Panty &amp; Stocking with Garterbelt
 		</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.5
+			7.3
 			</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -5962,21 +5962,21 @@
       <c r="A242" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Goblin Slayer: GOBLIN'S CROWN
+			Peach Boy Riverside
 		</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.5
+			7.3
 			</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -5985,14 +5985,14 @@
       <c r="A243" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kinsou no Vermeil: Gakeppuchi Majutsushi wa Saikyou no Yakusai to Mahou Sekai wo Tsuki Susumu
+			Shinobi no Ittoki
 		</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.5
+			7.3
 			</t>
         </is>
       </c>
@@ -6008,21 +6008,21 @@
       <c r="A244" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tokyo Ghoul √A
+			Toradora!
 		</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.5
+			7.3
 			</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		25
 		</t>
         </is>
       </c>
@@ -6031,21 +6031,21 @@
       <c r="A245" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fate/stay night Movie: UNLIMITED BLADE WORKS
+			World Trigger
 		</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.3
+			7.3
 			</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		73
 		</t>
         </is>
       </c>
@@ -6054,14 +6054,14 @@
       <c r="A246" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Fuufu Ijou, Koibito Miman.
+			World Trigger 2nd Season
 		</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.3
+			7.3
 			</t>
         </is>
       </c>
@@ -6077,21 +6077,21 @@
       <c r="A247" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Koroshi Ai
+			World Trigger 3rd Season
 		</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.3
+			7.3
 			</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		14
 		</t>
         </is>
       </c>
@@ -6100,14 +6100,14 @@
       <c r="A248" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Monster Musume no Iru Nichijou
+			Akuyaku Reijou nano de Last Boss wo Kattemimashita
 		</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.3
+			7.1
 			</t>
         </is>
       </c>
@@ -6123,21 +6123,21 @@
       <c r="A249" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Seirei Gensouki
+			Kage no Jitsuryokusha ni Naritakute!
 		</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.3
+			7.1
 			</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		20
 		</t>
         </is>
       </c>
@@ -6146,21 +6146,21 @@
       <c r="A250" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Gleipnir
+			Kage no Jitsuryokusha ni Naritakute! 2nd season
 		</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.1
+			7.1
 			</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -6169,21 +6169,21 @@
       <c r="A251" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Spy Kyoushitsu
+			Metal Fight Beyblade 4D
 		</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			6.1
+			7.1
 			</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		52
 		</t>
         </is>
       </c>
@@ -6192,21 +6192,21 @@
       <c r="A252" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sword Art Online II
+			Slime Taoshite 300-nen, Shiranai Uchi ni Level MAX ni Nattemashita
 		</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5.9
+			7.1
 			</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		12
 		</t>
         </is>
       </c>
@@ -6215,21 +6215,21 @@
       <c r="A253" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tokyo Ghoul:re
+			Steins;Gate
 		</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5.9
+			7.1
 			</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		24
 		</t>
         </is>
       </c>
@@ -6238,14 +6238,14 @@
       <c r="A254" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tokyo Ghoul:re 2
+			Tensai Ouji no Akaji Kokka Saisei Jutsu
 		</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5.9
+			7.1
 			</t>
         </is>
       </c>
@@ -6261,21 +6261,21 @@
       <c r="A255" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Mamahaha no Tsurego ga Motokano datta
+			Date A Live Movie: Mayuri Judgement
 		</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5.7
+			7
 			</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -6284,21 +6284,21 @@
       <c r="A256" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shuumatsu no Harem
+			Genjitsu Shugi Yuusha no Oukoku Saikenki
 		</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5.7
+			7
 			</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		11
+		13
 		</t>
         </is>
       </c>
@@ -6307,21 +6307,21 @@
       <c r="A257" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Hajimete no Gal
+			Genjitsu Shugi Yuusha no Oukoku Saikenki Part 2
 		</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5.5
+			7
 			</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		10
+		13
 		</t>
         </is>
       </c>
@@ -6330,14 +6330,14 @@
       <c r="A258" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shikkakumon no Saikyou Kenja
+			Domestic na Kanojo
 		</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5.5
+			6.9
 			</t>
         </is>
       </c>
@@ -6353,21 +6353,21 @@
       <c r="A259" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Chuunibyou demo Koi ga Shitai!
+			Kakkou no Iinazuke
 		</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5.3
+			6.9
 			</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		24
 		</t>
         </is>
       </c>
@@ -6376,14 +6376,14 @@
       <c r="A260" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Chuunibyou demo Koi ga Shitai! Ren
+			Kanojo, Okarishimasu
 		</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5.3
+			6.9
 			</t>
         </is>
       </c>
@@ -6399,14 +6399,14 @@
       <c r="A261" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Akudama Drive
+			Kimi no Koto ga Dai Dai Dai Dai Daisuki na 100-nin no Kanojo
 		</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5.1
+			6.9
 			</t>
         </is>
       </c>
@@ -6422,21 +6422,21 @@
       <c r="A262" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Masamune-kun no Revenge
+			Kobayashi-san Chi no Maidragon: Valentine, Soshite Onsen! (Amari Kitai Shinaide Kudasai)
 		</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5.1
+			6.9
 			</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		1
 		</t>
         </is>
       </c>
@@ -6445,14 +6445,14 @@
       <c r="A263" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Deatte 5-byou de Battle
+			Ore dake Haireru Kakushi Dungeon
 		</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			4.9
+			6.9
 			</t>
         </is>
       </c>
@@ -6468,14 +6468,14 @@
       <c r="A264" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shinka no Mi: Shiranai Uchi ni Kachigumi Jinsei
+			Shimoneta to Iu Gainen ga Sonzai Shinai Taikutsu na Sekai
 		</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			4.9
+			6.9
 			</t>
         </is>
       </c>
@@ -6491,14 +6491,14 @@
       <c r="A265" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			100-man no Inochi no Ue ni Ore wa Tatteiru
+			Trinity Seven
 		</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			4.7
+			6.9
 			</t>
         </is>
       </c>
@@ -6514,21 +6514,21 @@
       <c r="A266" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			100-man no Inochi no Ue ni Ore wa Tatteiru 2nd Season
+			Angel Beats!
 		</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			4.7
+			6.7
 			</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -6537,21 +6537,21 @@
       <c r="A267" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Black Bullet
+			Boushoku no Berserk
 		</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			4.7
+			6.7
 			</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -6560,21 +6560,21 @@
       <c r="A268" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sousei no Onmyouji
+			Death March Kara Hajimaru Isekai Kyousoukyoku
 		</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			4.7
+			6.7
 			</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		50
+		12
 		</t>
         </is>
       </c>
@@ -6583,21 +6583,21 @@
       <c r="A269" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Mahouka Koukou no Rettousei
+			Hige wo Soru. Soshite Joshikousei wo Hirou.
 		</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			4.5
+			6.7
 			</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		26
+		13
 		</t>
         </is>
       </c>
@@ -6606,21 +6606,21 @@
       <c r="A270" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Mahouka Koukou no Rettousei: Raihousha-hen
+			Kiznaiver
 		</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			4.5
+			6.7
 			</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		13
+		12
 		</t>
         </is>
       </c>
@@ -6629,21 +6629,21 @@
       <c r="A271" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Mahoutsukai no Yome
+			Maou Gakuin no Futekigousha: Shijou Saikyou no Maou no Shiso, Tensei shite Shison-tachi no Gakkou e Kayou
 		</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			4.5
+			6.7
 			</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		24
+		13
 		</t>
         </is>
       </c>
@@ -6652,14 +6652,14 @@
       <c r="A272" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Gamers!
+			Maou Gakuin no Futekigousha: Shijou Saikyou no Maou no Shiso, Tensei shite Shison-tachi no Gakkou e Kayou II
 		</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			2.1
+			6.7
 			</t>
         </is>
       </c>
@@ -6675,21 +6675,21 @@
       <c r="A273" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Go-toubun no Hanayome
+			NOBLESSE
 		</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			2
+			6.7
 			</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		12
+		13
 		</t>
         </is>
       </c>
@@ -6698,15 +6698,21 @@
       <c r="A274" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			BLEACH: MEMORIES OF NOBODY
-		</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr"/>
+			Shikanoko Nokonoko Koshitantan
+		</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.7
+			</t>
+        </is>
+      </c>
       <c r="C274" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -6715,15 +6721,21 @@
       <c r="A275" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			BLEACH: The DiamondDust Rebellion - Mou Hitotsu no Hyourinmaru
-		</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr"/>
+			Shin Seiki Evangelion
+		</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.7
+			</t>
+        </is>
+      </c>
       <c r="C275" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		26
 		</t>
         </is>
       </c>
@@ -6732,11 +6744,17 @@
       <c r="A276" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Chuunibyou demo Koi ga Shitai!: Kirameki no… Slapstick Noel
-		</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr"/>
+			Shin Seiki Evangelion Movie: Air / Magokoro wo, Kimi ni
+		</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.7
+			</t>
+        </is>
+      </c>
       <c r="C276" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -6749,15 +6767,21 @@
       <c r="A277" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Cider no You ni Kotoba ga Wakiagaru
-		</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr"/>
+			Suki na Ko ga Megane wo Wasureta
+		</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.7
+			</t>
+        </is>
+      </c>
       <c r="C277" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		13
 		</t>
         </is>
       </c>
@@ -6766,15 +6790,21 @@
       <c r="A278" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Date A Live: DATE TO DATE
-		</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr"/>
+			Goblin Slayer
+		</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.5
+			</t>
+        </is>
+      </c>
       <c r="C278" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -6783,11 +6813,17 @@
       <c r="A279" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka III OVA
-		</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr"/>
+			Goblin Slayer: GOBLIN'S CROWN
+		</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.5
+			</t>
+        </is>
+      </c>
       <c r="C279" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -6800,15 +6836,21 @@
       <c r="A280" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Durarara!!x2 Ten: Onoroke Chakapoko
-		</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr"/>
+			Kikansha no Mahou wa Tokubetsu desu
+		</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.5
+			</t>
+        </is>
+      </c>
       <c r="C280" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -6817,15 +6859,21 @@
       <c r="A281" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Hataraku Saibou: Kaze Shoukougun
-		</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr"/>
+			Kinsou no Vermeil: Gakeppuchi Majutsushi wa Saikyou no Yakusai to Mahou Sekai wo Tsuki Susumu
+		</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.5
+			</t>
+        </is>
+      </c>
       <c r="C281" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -6834,15 +6882,21 @@
       <c r="A282" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Kaguya-sama wa Kokurasetai: Tensaitachi no Renai Zunousen OVA
-		</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr"/>
+			One Punch Man
+		</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.5
+			</t>
+        </is>
+      </c>
       <c r="C282" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -6851,15 +6905,21 @@
       <c r="A283" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Metal Fight Beyblade
-		</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr"/>
+			One Punch Man 2
+		</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.5
+			</t>
+        </is>
+      </c>
       <c r="C283" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		51
+		12
 		</t>
         </is>
       </c>
@@ -6868,15 +6928,21 @@
       <c r="A284" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Mob Psycho 100: Daiikkai Rei toka Soudansho Ian Ryokou - Kokoro Mitasu Iyashi no Tabi
-		</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr"/>
+			Tokyo Ghoul √A
+		</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.5
+			</t>
+        </is>
+      </c>
       <c r="C284" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -6885,15 +6951,21 @@
       <c r="A285" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Mononoke-hime
-		</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr"/>
+			Cowboy Bebop
+		</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
       <c r="C285" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		26
 		</t>
         </is>
       </c>
@@ -6902,11 +6974,17 @@
       <c r="A286" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Mushoku Tensei: Isekai Ittara Honki Dasu Part 2 - Eris no Goblin Toubatsu
-		</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr"/>
+			Fate/stay night Movie: UNLIMITED BLADE WORKS
+		</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
       <c r="C286" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -6919,11 +6997,17 @@
       <c r="A287" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Nande Koko ni Sensei ga!?
-		</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr"/>
+			Fuufu Ijou, Koibito Miman.
+		</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
       <c r="C287" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -6936,15 +7020,21 @@
       <c r="A288" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			NARUTO: Blood Prison
-		</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr"/>
+			Kanojo mo Kanojo
+		</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
       <c r="C288" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -6953,15 +7043,21 @@
       <c r="A289" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			NARUTO: Dai Gekitotsu! Maboroshi no Chitei Iseki Dattebayo
-		</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr"/>
+			Koroshi Ai
+		</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
       <c r="C289" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -6970,15 +7066,21 @@
       <c r="A290" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			NARUTO: Dai Katsugeki! Yuki Hime Ninpouchou Dattebayo!!
-		</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr"/>
+			Monster Musume no Iru Nichijou
+		</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
       <c r="C290" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -6987,15 +7089,21 @@
       <c r="A291" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			NARUTO: Shippuuden - Hi no Ishi wo Tsugu Mono
-		</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr"/>
+			Seirei Gensouki
+		</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.3
+			</t>
+        </is>
+      </c>
       <c r="C291" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -7004,15 +7112,21 @@
       <c r="A292" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			NARUTO: Shippuuden - Kizuna
-		</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr"/>
+			Gleipnir
+		</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.1
+			</t>
+        </is>
+      </c>
       <c r="C292" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		13
 		</t>
         </is>
       </c>
@@ -7021,15 +7135,21 @@
       <c r="A293" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			NARUTO: Shippuuden - The Lost Tower
-		</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr"/>
+			Helck
+		</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.1
+			</t>
+        </is>
+      </c>
       <c r="C293" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		24
 		</t>
         </is>
       </c>
@@ -7038,15 +7158,21 @@
       <c r="A294" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			ONE PIECE FILM: RED
-		</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr"/>
+			Katsute Kami Datta Kemono-tachi e
+		</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			6.1
+			</t>
+        </is>
+      </c>
       <c r="C294" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -7055,15 +7181,21 @@
       <c r="A295" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			ROAD OF NARUTO
-		</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr"/>
+			Sword Art Online II
+		</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.9
+			</t>
+        </is>
+      </c>
       <c r="C295" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		24
 		</t>
         </is>
       </c>
@@ -7072,15 +7204,21 @@
       <c r="A296" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			ROAD TO NINJA: NARUTO THE MOVIE
-		</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr"/>
+			Tokyo Ghoul:re
+		</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.9
+			</t>
+        </is>
+      </c>
       <c r="C296" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -7089,15 +7227,21 @@
       <c r="A297" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Saiki Kusuo no Ψ-nan
-		</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr"/>
+			Tokyo Ghoul:re 2
+		</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.9
+			</t>
+        </is>
+      </c>
       <c r="C297" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		120
+		12
 		</t>
         </is>
       </c>
@@ -7106,15 +7250,21 @@
       <c r="A298" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sen to Chihiro no Kamikakushi
-		</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr"/>
+			Shuumatsu no Harem
+		</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.7
+			</t>
+        </is>
+      </c>
       <c r="C298" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		11
 		</t>
         </is>
       </c>
@@ -7123,15 +7273,21 @@
       <c r="A299" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Shingeki no Kyojin Gaiden: Kuinaki Sentaku
-		</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr"/>
+			Spy Kyoushitsu
+		</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.7
+			</t>
+        </is>
+      </c>
       <c r="C299" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		2
+		12
 		</t>
         </is>
       </c>
@@ -7140,15 +7296,21 @@
       <c r="A300" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Sword Art Online: Ordinal Scale
-		</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr"/>
+			Spy Kyoushitsu 2nd season
+		</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.7
+			</t>
+        </is>
+      </c>
       <c r="C300" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -7157,15 +7319,21 @@
       <c r="A301" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Tonikaku Kawaii: Seifuku
-		</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr"/>
+			Hajimete no Gal
+		</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.5
+			</t>
+        </is>
+      </c>
       <c r="C301" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		10
 		</t>
         </is>
       </c>
@@ -7174,15 +7342,21 @@
       <c r="A302" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			VINLAND SAGA SEASON 2: Drowning in the Shadow
-		</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr"/>
+			Shikkakumon no Saikyou Kenja
+		</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.5
+			</t>
+        </is>
+      </c>
       <c r="C302" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -7191,15 +7365,21 @@
       <c r="A303" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			VINLAND SAGA SEASON 2: Same old story
-		</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr"/>
+			Chuunibyou demo Koi ga Shitai!
+		</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.3
+			</t>
+        </is>
+      </c>
       <c r="C303" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -7208,15 +7388,21 @@
       <c r="A304" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Violet Evergarden Movie
-		</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr"/>
+			Chuunibyou demo Koi ga Shitai! Ren
+		</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.3
+			</t>
+        </is>
+      </c>
       <c r="C304" t="inlineStr">
         <is>
           <t xml:space="preserve">
-		1
+		12
 		</t>
         </is>
       </c>
@@ -7225,12 +7411,1101 @@
       <c r="A305" t="inlineStr">
         <is>
           <t xml:space="preserve">
+			Mamahaha no Tsurego ga Motokano datta
+		</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.3
+			</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Osananajimi ga Zettai ni Makenai Love Come
+		</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.3
+			</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Akudama Drive
+		</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.1
+			</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Jitsu wa Ore, Saikyou Deshita?
+		</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.1
+			</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Masamune-kun no Revenge
+		</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.1
+			</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Masamune-kun no Revenge R
+		</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.1
+			</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Saikin Yatotta Maid ga Ayashii
+		</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.1
+			</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		11
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Seiken Gakuin no Maken Tsukai
+		</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			5.1
+			</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Deatte 5-byou de Battle
+		</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.9
+			</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shinka no Mi: Shiranai Uchi ni Kachigumi Jinsei
+		</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.9
+			</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			100-man no Inochi no Ue ni Ore wa Tatteiru
+		</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.7
+			</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			100-man no Inochi no Ue ni Ore wa Tatteiru 2nd Season
+		</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.7
+			</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Black Bullet
+		</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.7
+			</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sousei no Onmyouji
+		</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.7
+			</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		50
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mahouka Koukou no Rettousei
+		</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.5
+			</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		26
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mahouka Koukou no Rettousei: Raihousha-hen
+		</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.5
+			</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		13
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mahoutsukai no Yome
+		</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			4.5
+			</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		24
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Gamers!
+		</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			2.1
+			</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			No Game No Life
+		</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			2.1
+			</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Go-toubun no Hanayome
+		</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			0.1
+			</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Black Clover: Mahou Tei no Ken
+		</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			BLEACH: MEMORIES OF NOBODY
+		</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			BLEACH: The DiamondDust Rebellion - Mou Hitotsu no Hyourinmaru
+		</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Chuunibyou demo Koi ga Shitai!: Kirameki no… Slapstick Noel
+		</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Cider no You ni Kotoba ga Wakiagaru
+		</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr"/>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Date A Live: DATE TO DATE
+		</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka III OVA
+		</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Durarara!!x2 Ten: Onoroke Chakapoko
+		</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Hataraku Saibou: Kaze Shoukougun
+		</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kaguya-sama wa Kokurasetai: Tensaitachi no Renai Zunousen OVA
+		</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr"/>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Kimitachi wa Dou Ikiru ka
+		</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Metal Fight Beyblade
+		</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		51
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mob Psycho 100: Daiikkai Rei toka Soudansho Ian Ryokou - Kokoro Mitasu Iyashi no Tabi
+		</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mononoke-hime
+		</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Mushoku Tensei: Isekai Ittara Honki Dasu Part 2 - Eris no Goblin Toubatsu
+		</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Nande Koko ni Sensei ga!?
+		</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		12
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Blood Prison
+		</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Dai Gekitotsu! Maboroshi no Chitei Iseki Dattebayo
+		</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Dai Katsugeki! Yuki Hime Ninpouchou Dattebayo!!
+		</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr"/>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Shippuuden - Hi no Ishi wo Tsugu Mono
+		</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Shippuuden - Kizuna
+		</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			NARUTO: Shippuuden - The Lost Tower
+		</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			ONE PIECE FILM: GOLD
+		</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			ONE PIECE FILM: RED
+		</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr"/>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			ONE PIECE FILM: STRONG WORLD
+		</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			ONE PIECE FILM: Z
+		</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			ROAD OF NARUTO
+		</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr"/>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			ROAD TO NINJA: NARUTO THE MOVIE
+		</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Saiki Kusuo no Ψ-nan
+		</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		120
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Scott Pilgrim Takes Off
+		</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		8
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sen to Chihiro no Kamikakushi
+		</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Shingeki no Kyojin Gaiden: Kuinaki Sentaku
+		</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		2
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Sword Art Online: Ordinal Scale
+		</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Tonikaku Kawaii: Seifuku
+		</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			VINLAND SAGA SEASON 2: Drowning in the Shadow
+		</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			VINLAND SAGA SEASON 2: Same old story
+		</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Violet Evergarden Movie
+		</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+		1
+		</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Wotaku ni Koi wa Muzukashii OVA
 		</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr"/>
-      <c r="C305" t="inlineStr">
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr">
         <is>
           <t xml:space="preserve">
 		3
